--- a/Documentación/Resultados.xlsx
+++ b/Documentación/Resultados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hugohernandez/Desktop/ADA/Documentación/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC26B510-825B-324D-9E43-43FDC47E9EEF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05457176-5F79-CF43-903D-4170C54811D7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14240" xr2:uid="{38290FD7-5BEA-634D-AAC4-60AAC5104D90}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="23">
   <si>
     <t>Sistema Operativo</t>
   </si>
@@ -47,12 +47,12 @@
     <t>WindowsMac</t>
   </si>
   <si>
-    <t>Algoritmo de Ordenación</t>
-  </si>
-  <si>
     <t>Burbuja</t>
   </si>
   <si>
+    <t>Diez</t>
+  </si>
+  <si>
     <t>Mil</t>
   </si>
   <si>
@@ -72,6 +72,33 @@
   </si>
   <si>
     <t>Quick-Sort</t>
+  </si>
+  <si>
+    <t>Cien</t>
+  </si>
+  <si>
+    <t>Algoritmos de Ordenación</t>
+  </si>
+  <si>
+    <t>Intentos</t>
+  </si>
+  <si>
+    <t>2do Intento</t>
+  </si>
+  <si>
+    <t>3er Intento</t>
+  </si>
+  <si>
+    <t>4to Intento</t>
+  </si>
+  <si>
+    <t>5to Intento</t>
+  </si>
+  <si>
+    <t>Promedio</t>
+  </si>
+  <si>
+    <t>1er Intento</t>
   </si>
 </sst>
 </file>
@@ -94,7 +121,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -191,8 +218,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF8AD8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -265,18 +310,60 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -310,19 +397,72 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFD883FF"/>
+      <color rgb="FFFF8AD8"/>
+      <color rgb="FF7A81FF"/>
+      <color rgb="FF76D6FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -631,208 +771,1262 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18F5E77D-1063-CF4C-B3DD-859DBC5ED32A}">
-  <dimension ref="A1:R7"/>
+  <dimension ref="A1:AB27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.6640625" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="2" max="3" width="17.33203125" customWidth="1"/>
+    <col min="4" max="5" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="C1" s="1" t="s">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A1" s="15"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
+      <c r="T1" s="21"/>
+      <c r="U1" s="21"/>
+      <c r="V1" s="21"/>
+      <c r="W1" s="21"/>
+      <c r="X1" s="21"/>
+      <c r="Y1" s="21"/>
+      <c r="Z1" s="21"/>
+      <c r="AA1" s="21"/>
+      <c r="AB1" s="21"/>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="2" t="s">
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="10"/>
+      <c r="V2" s="10"/>
+      <c r="W2" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="X2" s="13"/>
+      <c r="Y2" s="13"/>
+      <c r="Z2" s="13"/>
+      <c r="AA2" s="13"/>
+      <c r="AB2" s="13"/>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A3" s="16"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="15"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A3" s="19"/>
-      <c r="B3" s="20"/>
-      <c r="C3" s="9" t="s">
+      <c r="E3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="H3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="I3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="J3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="K3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="N3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="O3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="P3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="Q3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="R3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="S3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="10" t="s">
+      <c r="T3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="10" t="s">
+      <c r="U3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="N3" s="10" t="s">
+      <c r="V3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="O3" s="13" t="s">
+      <c r="W3" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="X3" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="P3" s="13" t="s">
+      <c r="Z3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="Q3" s="13" t="s">
+      <c r="AA3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="R3" s="13" t="s">
+      <c r="AB3" s="11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A4" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="18" t="s">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A4" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="14"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A5" s="17"/>
-      <c r="B5" s="16" t="s">
+      <c r="C4" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="9"/>
+      <c r="V4" s="9"/>
+      <c r="W4" s="12"/>
+      <c r="X4" s="12"/>
+      <c r="Y4" s="12"/>
+      <c r="Z4" s="12"/>
+      <c r="AA4" s="12"/>
+      <c r="AB4" s="12"/>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A5" s="14"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="9"/>
+      <c r="W5" s="12"/>
+      <c r="X5" s="12"/>
+      <c r="Y5" s="12"/>
+      <c r="Z5" s="12"/>
+      <c r="AA5" s="12"/>
+      <c r="AB5" s="12"/>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A6" s="14"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="9"/>
+      <c r="V6" s="9"/>
+      <c r="W6" s="12"/>
+      <c r="X6" s="12"/>
+      <c r="Y6" s="12"/>
+      <c r="Z6" s="12"/>
+      <c r="AA6" s="12"/>
+      <c r="AB6" s="12"/>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A7" s="14"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="9"/>
+      <c r="V7" s="9"/>
+      <c r="W7" s="12"/>
+      <c r="X7" s="12"/>
+      <c r="Y7" s="12"/>
+      <c r="Z7" s="12"/>
+      <c r="AA7" s="12"/>
+      <c r="AB7" s="12"/>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A8" s="14"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="29"/>
+      <c r="P8" s="29"/>
+      <c r="Q8" s="30"/>
+      <c r="R8" s="30"/>
+      <c r="S8" s="30"/>
+      <c r="T8" s="30"/>
+      <c r="U8" s="30"/>
+      <c r="V8" s="30"/>
+      <c r="W8" s="31"/>
+      <c r="X8" s="31"/>
+      <c r="Y8" s="31"/>
+      <c r="Z8" s="31"/>
+      <c r="AA8" s="31"/>
+      <c r="AB8" s="31"/>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A9" s="14"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="32">
+        <f>(D4+D5+D6+D7+D8)/5</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="32">
+        <f t="shared" ref="E9:AB9" si="0">(E4+E5+E6+E7+E8)/5</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H9" s="32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L9" s="32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M9" s="32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N9" s="32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O9" s="32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P9" s="32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R9" s="32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S9" s="32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T9" s="32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U9" s="32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V9" s="32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W9" s="32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X9" s="32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y9" s="32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z9" s="32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA9" s="32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB9" s="32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A10" s="14"/>
+      <c r="B10" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="14"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A6" s="17"/>
-      <c r="B6" s="16" t="s">
+      <c r="C10" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="34"/>
+      <c r="N10" s="34"/>
+      <c r="O10" s="34"/>
+      <c r="P10" s="34"/>
+      <c r="Q10" s="35"/>
+      <c r="R10" s="35"/>
+      <c r="S10" s="35"/>
+      <c r="T10" s="35"/>
+      <c r="U10" s="35"/>
+      <c r="V10" s="35"/>
+      <c r="W10" s="36"/>
+      <c r="X10" s="36"/>
+      <c r="Y10" s="36"/>
+      <c r="Z10" s="36"/>
+      <c r="AA10" s="36"/>
+      <c r="AB10" s="36"/>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A11" s="14"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
+      <c r="S11" s="9"/>
+      <c r="T11" s="9"/>
+      <c r="U11" s="9"/>
+      <c r="V11" s="9"/>
+      <c r="W11" s="12"/>
+      <c r="X11" s="12"/>
+      <c r="Y11" s="12"/>
+      <c r="Z11" s="12"/>
+      <c r="AA11" s="12"/>
+      <c r="AB11" s="12"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A12" s="14"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="9"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="9"/>
+      <c r="V12" s="9"/>
+      <c r="W12" s="12"/>
+      <c r="X12" s="12"/>
+      <c r="Y12" s="12"/>
+      <c r="Z12" s="12"/>
+      <c r="AA12" s="12"/>
+      <c r="AB12" s="12"/>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A13" s="14"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
+      <c r="S13" s="9"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="9"/>
+      <c r="V13" s="9"/>
+      <c r="W13" s="12"/>
+      <c r="X13" s="12"/>
+      <c r="Y13" s="12"/>
+      <c r="Z13" s="12"/>
+      <c r="AA13" s="12"/>
+      <c r="AB13" s="12"/>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A14" s="14"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="29"/>
+      <c r="P14" s="29"/>
+      <c r="Q14" s="30"/>
+      <c r="R14" s="30"/>
+      <c r="S14" s="30"/>
+      <c r="T14" s="30"/>
+      <c r="U14" s="30"/>
+      <c r="V14" s="30"/>
+      <c r="W14" s="31"/>
+      <c r="X14" s="31"/>
+      <c r="Y14" s="31"/>
+      <c r="Z14" s="31"/>
+      <c r="AA14" s="31"/>
+      <c r="AB14" s="31"/>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A15" s="14"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="32">
+        <f>(D10+D11+D12+D13+D14)/5</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="32">
+        <f>(E10+E11+E12+E13+E14)/5</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="32">
+        <f t="shared" ref="F15:AB15" si="1">(F10+F11+F12+F13+F14)/5</f>
+        <v>0</v>
+      </c>
+      <c r="G15" s="32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H15" s="32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K15" s="32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L15" s="32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M15" s="32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N15" s="32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O15" s="32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P15" s="32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R15" s="32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S15" s="32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T15" s="32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U15" s="32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V15" s="32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="W15" s="32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X15" s="32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y15" s="32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z15" s="32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA15" s="32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB15" s="32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A16" s="14"/>
+      <c r="B16" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="14"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A7" s="17"/>
-      <c r="B7" s="16" t="s">
+      <c r="C16" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="34"/>
+      <c r="M16" s="34"/>
+      <c r="N16" s="34"/>
+      <c r="O16" s="34"/>
+      <c r="P16" s="34"/>
+      <c r="Q16" s="35"/>
+      <c r="R16" s="35"/>
+      <c r="S16" s="35"/>
+      <c r="T16" s="35"/>
+      <c r="U16" s="35"/>
+      <c r="V16" s="35"/>
+      <c r="W16" s="36"/>
+      <c r="X16" s="36"/>
+      <c r="Y16" s="36"/>
+      <c r="Z16" s="36"/>
+      <c r="AA16" s="36"/>
+      <c r="AB16" s="36"/>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A17" s="14"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="9"/>
+      <c r="S17" s="9"/>
+      <c r="T17" s="9"/>
+      <c r="U17" s="9"/>
+      <c r="V17" s="9"/>
+      <c r="W17" s="12"/>
+      <c r="X17" s="12"/>
+      <c r="Y17" s="12"/>
+      <c r="Z17" s="12"/>
+      <c r="AA17" s="12"/>
+      <c r="AB17" s="12"/>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A18" s="14"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="9"/>
+      <c r="S18" s="9"/>
+      <c r="T18" s="9"/>
+      <c r="U18" s="9"/>
+      <c r="V18" s="9"/>
+      <c r="W18" s="12"/>
+      <c r="X18" s="12"/>
+      <c r="Y18" s="12"/>
+      <c r="Z18" s="12"/>
+      <c r="AA18" s="12"/>
+      <c r="AB18" s="12"/>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A19" s="14"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="9"/>
+      <c r="S19" s="9"/>
+      <c r="T19" s="9"/>
+      <c r="U19" s="9"/>
+      <c r="V19" s="9"/>
+      <c r="W19" s="12"/>
+      <c r="X19" s="12"/>
+      <c r="Y19" s="12"/>
+      <c r="Z19" s="12"/>
+      <c r="AA19" s="12"/>
+      <c r="AB19" s="12"/>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A20" s="14"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="29"/>
+      <c r="N20" s="29"/>
+      <c r="O20" s="29"/>
+      <c r="P20" s="29"/>
+      <c r="Q20" s="30"/>
+      <c r="R20" s="30"/>
+      <c r="S20" s="30"/>
+      <c r="T20" s="30"/>
+      <c r="U20" s="30"/>
+      <c r="V20" s="30"/>
+      <c r="W20" s="31"/>
+      <c r="X20" s="31"/>
+      <c r="Y20" s="31"/>
+      <c r="Z20" s="31"/>
+      <c r="AA20" s="31"/>
+      <c r="AB20" s="31"/>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A21" s="14"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="32">
+        <f>(D16+D17+D18+D19+D20)/5</f>
+        <v>0</v>
+      </c>
+      <c r="E21" s="32">
+        <f t="shared" ref="E21:AB21" si="2">(E16+E17+E18+E19+E20)/5</f>
+        <v>0</v>
+      </c>
+      <c r="F21" s="32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G21" s="32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H21" s="32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I21" s="32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J21" s="32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L21" s="32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M21" s="32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N21" s="32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O21" s="32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P21" s="32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q21" s="32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R21" s="32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S21" s="32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T21" s="32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U21" s="32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V21" s="32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W21" s="32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X21" s="32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y21" s="32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z21" s="32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA21" s="32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AB21" s="32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A22" s="14"/>
+      <c r="B22" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="14"/>
+      <c r="C22" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="34"/>
+      <c r="L22" s="34"/>
+      <c r="M22" s="34"/>
+      <c r="N22" s="34"/>
+      <c r="O22" s="34"/>
+      <c r="P22" s="34"/>
+      <c r="Q22" s="35"/>
+      <c r="R22" s="35"/>
+      <c r="S22" s="35"/>
+      <c r="T22" s="35"/>
+      <c r="U22" s="35"/>
+      <c r="V22" s="35"/>
+      <c r="W22" s="36"/>
+      <c r="X22" s="36"/>
+      <c r="Y22" s="36"/>
+      <c r="Z22" s="36"/>
+      <c r="AA22" s="36"/>
+      <c r="AB22" s="36"/>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A23" s="14"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="9"/>
+      <c r="R23" s="9"/>
+      <c r="S23" s="9"/>
+      <c r="T23" s="9"/>
+      <c r="U23" s="9"/>
+      <c r="V23" s="9"/>
+      <c r="W23" s="12"/>
+      <c r="X23" s="12"/>
+      <c r="Y23" s="12"/>
+      <c r="Z23" s="12"/>
+      <c r="AA23" s="12"/>
+      <c r="AB23" s="12"/>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A24" s="14"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="9"/>
+      <c r="R24" s="9"/>
+      <c r="S24" s="9"/>
+      <c r="T24" s="9"/>
+      <c r="U24" s="9"/>
+      <c r="V24" s="9"/>
+      <c r="W24" s="12"/>
+      <c r="X24" s="12"/>
+      <c r="Y24" s="12"/>
+      <c r="Z24" s="12"/>
+      <c r="AA24" s="12"/>
+      <c r="AB24" s="12"/>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A25" s="14"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="9"/>
+      <c r="R25" s="9"/>
+      <c r="S25" s="9"/>
+      <c r="T25" s="9"/>
+      <c r="U25" s="9"/>
+      <c r="V25" s="9"/>
+      <c r="W25" s="12"/>
+      <c r="X25" s="12"/>
+      <c r="Y25" s="12"/>
+      <c r="Z25" s="12"/>
+      <c r="AA25" s="12"/>
+      <c r="AB25" s="12"/>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A26" s="14"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="29"/>
+      <c r="N26" s="29"/>
+      <c r="O26" s="29"/>
+      <c r="P26" s="29"/>
+      <c r="Q26" s="30"/>
+      <c r="R26" s="30"/>
+      <c r="S26" s="30"/>
+      <c r="T26" s="30"/>
+      <c r="U26" s="30"/>
+      <c r="V26" s="30"/>
+      <c r="W26" s="31"/>
+      <c r="X26" s="31"/>
+      <c r="Y26" s="31"/>
+      <c r="Z26" s="31"/>
+      <c r="AA26" s="31"/>
+      <c r="AB26" s="31"/>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A27" s="14"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="32">
+        <f>(D22+D23+D24+D25+D26)/5</f>
+        <v>0</v>
+      </c>
+      <c r="E27" s="32">
+        <f t="shared" ref="E27:AB27" si="3">(E22+E23+E24+E25+E26)/5</f>
+        <v>0</v>
+      </c>
+      <c r="F27" s="32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G27" s="32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H27" s="32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I27" s="32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J27" s="32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K27" s="32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L27" s="32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M27" s="32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N27" s="32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O27" s="32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P27" s="32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q27" s="32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R27" s="32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S27" s="32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T27" s="32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U27" s="32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V27" s="32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="W27" s="32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="X27" s="32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Y27" s="32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z27" s="32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA27" s="32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AB27" s="32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="O2:R2"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:J1"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="G2:J2"/>
+  <mergeCells count="11">
+    <mergeCell ref="Q2:V2"/>
+    <mergeCell ref="W2:AB2"/>
+    <mergeCell ref="D2:J2"/>
+    <mergeCell ref="D1:AB1"/>
+    <mergeCell ref="B4:B9"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="A4:A27"/>
+    <mergeCell ref="K2:P2"/>
+    <mergeCell ref="B10:B15"/>
+    <mergeCell ref="B16:B21"/>
+    <mergeCell ref="B22:B27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Documentación/Resultados.xlsx
+++ b/Documentación/Resultados.xlsx
@@ -1,29 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10115"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hugohernandez/Desktop/ADA/Documentación/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Materias\ADA\Proyecto\ADA\Documentación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC26B510-825B-324D-9E43-43FDC47E9EEF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B210F64-CE5A-4127-BFBD-65B16BB4C85F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14240" xr2:uid="{38290FD7-5BEA-634D-AAC4-60AAC5104D90}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19680" windowHeight="11760" activeTab="1" xr2:uid="{38290FD7-5BEA-634D-AAC4-60AAC5104D90}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -269,14 +265,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -284,6 +274,35 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -293,30 +312,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -633,197 +628,197 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18F5E77D-1063-CF4C-B3DD-859DBC5ED32A}">
   <dimension ref="A1:R7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="1" max="1" width="20.625" customWidth="1"/>
+    <col min="2" max="2" width="17.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="C1" s="1" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="2" t="s">
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="6" t="s">
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="8"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="19"/>
       <c r="K2" s="12" t="s">
         <v>12</v>
       </c>
       <c r="L2" s="12"/>
       <c r="M2" s="12"/>
       <c r="N2" s="12"/>
-      <c r="O2" s="15" t="s">
+      <c r="O2" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="15"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A3" s="19"/>
-      <c r="B3" s="20"/>
-      <c r="C3" s="9" t="s">
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="K3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="10" t="s">
+      <c r="L3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="10" t="s">
+      <c r="M3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="N3" s="10" t="s">
+      <c r="N3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="O3" s="13" t="s">
+      <c r="O3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="P3" s="13" t="s">
+      <c r="P3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="Q3" s="13" t="s">
+      <c r="Q3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="R3" s="13" t="s">
+      <c r="R3" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A4" s="17" t="s">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="14"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A5" s="17"/>
-      <c r="B5" s="16" t="s">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="14"/>
+      <c r="B5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="14"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A6" s="17"/>
-      <c r="B6" s="16" t="s">
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="14"/>
+      <c r="B6" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="14"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A7" s="17"/>
-      <c r="B7" s="16" t="s">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="14"/>
+      <c r="B7" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="14"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -836,4 +831,143 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27F65221-6B62-4FBC-93B3-599AD5C63628}">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" t="str">
+        <f>Hoja1!C2</f>
+        <v>Burbuja</v>
+      </c>
+      <c r="C1" t="str">
+        <f>Hoja1!G2</f>
+        <v>Comb-Sort</v>
+      </c>
+      <c r="D1" t="str">
+        <f>Hoja1!K2</f>
+        <v>Merge-Sort</v>
+      </c>
+      <c r="E1" t="str">
+        <f>Hoja1!O2</f>
+        <v>Quick-Sort</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>9.6873340000000006E-3</v>
+      </c>
+      <c r="C2">
+        <v>7.355823E-3</v>
+      </c>
+      <c r="D2">
+        <v>7.7361790000000001E-3</v>
+      </c>
+      <c r="E2">
+        <v>7.5953790000000002E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>9.8036900000000003E-3</v>
+      </c>
+      <c r="C3">
+        <v>7.7244449999999999E-3</v>
+      </c>
+      <c r="D3">
+        <v>7.0561340000000004E-3</v>
+      </c>
+      <c r="E3">
+        <v>7.1358230000000003E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>9.4697789999999993E-3</v>
+      </c>
+      <c r="C4">
+        <v>9.1793789999999997E-3</v>
+      </c>
+      <c r="D4">
+        <v>7.1387559999999996E-3</v>
+      </c>
+      <c r="E4">
+        <v>6.8982230000000002E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>9.3148009999999993E-3</v>
+      </c>
+      <c r="C5">
+        <v>9.8657789999999999E-3</v>
+      </c>
+      <c r="D5">
+        <v>9.5553340000000004E-3</v>
+      </c>
+      <c r="E5">
+        <v>7.1485339999999998E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>6.6308010000000004E-3</v>
+      </c>
+      <c r="C6">
+        <v>7.2228450000000003E-3</v>
+      </c>
+      <c r="D6">
+        <v>9.4340899999999991E-3</v>
+      </c>
+      <c r="E6">
+        <v>7.2717349999999997E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <f>AVERAGE(B2:B6)</f>
+        <v>8.9812809999999989E-3</v>
+      </c>
+      <c r="C7">
+        <f>AVERAGE(C2:C6)</f>
+        <v>8.2696542000000005E-3</v>
+      </c>
+      <c r="D7">
+        <f t="shared" ref="D7:E7" si="0">AVERAGE(D2:D6)</f>
+        <v>8.1840986000000001E-3</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>7.2099388000000002E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Documentación/Resultados.xlsx
+++ b/Documentación/Resultados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hugohernandez/Desktop/ADA/Documentación/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05457176-5F79-CF43-903D-4170C54811D7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53620567-0D97-C04C-A6AA-377A84EE021D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14240" xr2:uid="{38290FD7-5BEA-634D-AAC4-60AAC5104D90}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="23">
   <si>
     <t>Sistema Operativo</t>
   </si>
@@ -771,20 +771,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18F5E77D-1063-CF4C-B3DD-859DBC5ED32A}">
-  <dimension ref="A1:AB27"/>
+  <dimension ref="A1:AA27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C3"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.6640625" customWidth="1"/>
     <col min="2" max="3" width="17.33203125" customWidth="1"/>
-    <col min="4" max="5" width="16.6640625" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" s="15"/>
       <c r="B1" s="15"/>
       <c r="C1" s="25" t="s">
@@ -816,9 +816,8 @@
       <c r="Y1" s="21"/>
       <c r="Z1" s="21"/>
       <c r="AA1" s="21"/>
-      <c r="AB1" s="21"/>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2" s="16"/>
       <c r="B2" s="16"/>
       <c r="C2" s="25"/>
@@ -829,34 +828,33 @@
       <c r="F2" s="19"/>
       <c r="G2" s="19"/>
       <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="4" t="s">
+      <c r="I2" s="20"/>
+      <c r="J2" s="4" t="s">
         <v>11</v>
       </c>
+      <c r="K2" s="5"/>
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="10" t="s">
+      <c r="O2" s="6"/>
+      <c r="P2" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="Q2" s="10"/>
       <c r="R2" s="10"/>
       <c r="S2" s="10"/>
       <c r="T2" s="10"/>
       <c r="U2" s="10"/>
-      <c r="V2" s="10"/>
-      <c r="W2" s="13" t="s">
+      <c r="V2" s="13" t="s">
         <v>13</v>
       </c>
+      <c r="W2" s="13"/>
       <c r="X2" s="13"/>
       <c r="Y2" s="13"/>
       <c r="Z2" s="13"/>
       <c r="AA2" s="13"/>
-      <c r="AB2" s="13"/>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3" s="16"/>
       <c r="B3" s="17"/>
       <c r="C3" s="26"/>
@@ -864,79 +862,76 @@
         <v>6</v>
       </c>
       <c r="E3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="K3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="L3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="M3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="N3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="O3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="P3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="Q3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="R3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="S3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="T3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="U3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="Q3" s="8" t="s">
+      <c r="V3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="8" t="s">
+      <c r="W3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="S3" s="8" t="s">
+      <c r="X3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="T3" s="8" t="s">
+      <c r="Y3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="U3" s="8" t="s">
+      <c r="Z3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="V3" s="8" t="s">
+      <c r="AA3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="W3" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="X3" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y3" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z3" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA3" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB3" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>0</v>
       </c>
@@ -946,161 +941,166 @@
       <c r="C4" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="1"/>
+      <c r="D4" s="1">
+        <v>2.3782686000000001E-2</v>
+      </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
+      <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
+      <c r="P4" s="9"/>
       <c r="Q4" s="9"/>
       <c r="R4" s="9"/>
       <c r="S4" s="9"/>
       <c r="T4" s="9"/>
       <c r="U4" s="9"/>
-      <c r="V4" s="9"/>
+      <c r="V4" s="12"/>
       <c r="W4" s="12"/>
       <c r="X4" s="12"/>
       <c r="Y4" s="12"/>
       <c r="Z4" s="12"/>
       <c r="AA4" s="12"/>
-      <c r="AB4" s="12"/>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="14"/>
       <c r="B5" s="23"/>
       <c r="C5" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="1"/>
+      <c r="D5" s="1">
+        <v>2.5426068E-2</v>
+      </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
+      <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
+      <c r="P5" s="9"/>
       <c r="Q5" s="9"/>
       <c r="R5" s="9"/>
       <c r="S5" s="9"/>
       <c r="T5" s="9"/>
       <c r="U5" s="9"/>
-      <c r="V5" s="9"/>
+      <c r="V5" s="12"/>
       <c r="W5" s="12"/>
       <c r="X5" s="12"/>
       <c r="Y5" s="12"/>
       <c r="Z5" s="12"/>
       <c r="AA5" s="12"/>
-      <c r="AB5" s="12"/>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" s="14"/>
       <c r="B6" s="23"/>
       <c r="C6" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="1"/>
+      <c r="D6" s="1">
+        <v>2.2213452000000002E-2</v>
+      </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
+      <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
+      <c r="P6" s="9"/>
       <c r="Q6" s="9"/>
       <c r="R6" s="9"/>
       <c r="S6" s="9"/>
       <c r="T6" s="9"/>
       <c r="U6" s="9"/>
-      <c r="V6" s="9"/>
+      <c r="V6" s="12"/>
       <c r="W6" s="12"/>
       <c r="X6" s="12"/>
       <c r="Y6" s="12"/>
       <c r="Z6" s="12"/>
       <c r="AA6" s="12"/>
-      <c r="AB6" s="12"/>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" s="14"/>
       <c r="B7" s="23"/>
       <c r="C7" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="1"/>
+      <c r="D7" s="1">
+        <v>2.4935939000000001E-2</v>
+      </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
+      <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
+      <c r="P7" s="9"/>
       <c r="Q7" s="9"/>
       <c r="R7" s="9"/>
       <c r="S7" s="9"/>
       <c r="T7" s="9"/>
       <c r="U7" s="9"/>
-      <c r="V7" s="9"/>
+      <c r="V7" s="12"/>
       <c r="W7" s="12"/>
       <c r="X7" s="12"/>
       <c r="Y7" s="12"/>
       <c r="Z7" s="12"/>
       <c r="AA7" s="12"/>
-      <c r="AB7" s="12"/>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8" s="14"/>
       <c r="B8" s="23"/>
       <c r="C8" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="28"/>
+      <c r="D8" s="28">
+        <v>2.7977952E-2</v>
+      </c>
       <c r="E8" s="28"/>
       <c r="F8" s="28"/>
       <c r="G8" s="28"/>
       <c r="H8" s="28"/>
       <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
+      <c r="J8" s="29"/>
       <c r="K8" s="29"/>
       <c r="L8" s="29"/>
       <c r="M8" s="29"/>
       <c r="N8" s="29"/>
       <c r="O8" s="29"/>
-      <c r="P8" s="29"/>
+      <c r="P8" s="30"/>
       <c r="Q8" s="30"/>
       <c r="R8" s="30"/>
       <c r="S8" s="30"/>
       <c r="T8" s="30"/>
       <c r="U8" s="30"/>
-      <c r="V8" s="30"/>
+      <c r="V8" s="31"/>
       <c r="W8" s="31"/>
       <c r="X8" s="31"/>
       <c r="Y8" s="31"/>
       <c r="Z8" s="31"/>
       <c r="AA8" s="31"/>
-      <c r="AB8" s="31"/>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9" s="14"/>
       <c r="B9" s="24"/>
       <c r="C9" s="37" t="s">
@@ -1108,10 +1108,10 @@
       </c>
       <c r="D9" s="32">
         <f>(D4+D5+D6+D7+D8)/5</f>
-        <v>0</v>
+        <v>2.4867219400000001E-2</v>
       </c>
       <c r="E9" s="32">
-        <f t="shared" ref="E9:AB9" si="0">(E4+E5+E6+E7+E8)/5</f>
+        <f t="shared" ref="E9:AA9" si="0">(E4+E5+E6+E7+E8)/5</f>
         <v>0</v>
       </c>
       <c r="F9" s="32">
@@ -1202,12 +1202,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AB9" s="32">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10" s="14"/>
       <c r="B10" s="22" t="s">
         <v>2</v>
@@ -1221,27 +1217,26 @@
       <c r="G10" s="33"/>
       <c r="H10" s="33"/>
       <c r="I10" s="33"/>
-      <c r="J10" s="33"/>
+      <c r="J10" s="34"/>
       <c r="K10" s="34"/>
       <c r="L10" s="34"/>
       <c r="M10" s="34"/>
       <c r="N10" s="34"/>
       <c r="O10" s="34"/>
-      <c r="P10" s="34"/>
+      <c r="P10" s="35"/>
       <c r="Q10" s="35"/>
       <c r="R10" s="35"/>
       <c r="S10" s="35"/>
       <c r="T10" s="35"/>
       <c r="U10" s="35"/>
-      <c r="V10" s="35"/>
+      <c r="V10" s="36"/>
       <c r="W10" s="36"/>
       <c r="X10" s="36"/>
       <c r="Y10" s="36"/>
       <c r="Z10" s="36"/>
       <c r="AA10" s="36"/>
-      <c r="AB10" s="36"/>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11" s="14"/>
       <c r="B11" s="23"/>
       <c r="C11" s="27" t="s">
@@ -1253,27 +1248,26 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
+      <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
+      <c r="P11" s="9"/>
       <c r="Q11" s="9"/>
       <c r="R11" s="9"/>
       <c r="S11" s="9"/>
       <c r="T11" s="9"/>
       <c r="U11" s="9"/>
-      <c r="V11" s="9"/>
+      <c r="V11" s="12"/>
       <c r="W11" s="12"/>
       <c r="X11" s="12"/>
       <c r="Y11" s="12"/>
       <c r="Z11" s="12"/>
       <c r="AA11" s="12"/>
-      <c r="AB11" s="12"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12" s="14"/>
       <c r="B12" s="23"/>
       <c r="C12" s="27" t="s">
@@ -1285,27 +1279,26 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
+      <c r="J12" s="3"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
+      <c r="P12" s="9"/>
       <c r="Q12" s="9"/>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
       <c r="T12" s="9"/>
       <c r="U12" s="9"/>
-      <c r="V12" s="9"/>
+      <c r="V12" s="12"/>
       <c r="W12" s="12"/>
       <c r="X12" s="12"/>
       <c r="Y12" s="12"/>
       <c r="Z12" s="12"/>
       <c r="AA12" s="12"/>
-      <c r="AB12" s="12"/>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13" s="14"/>
       <c r="B13" s="23"/>
       <c r="C13" s="27" t="s">
@@ -1317,27 +1310,26 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
+      <c r="J13" s="3"/>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
+      <c r="P13" s="9"/>
       <c r="Q13" s="9"/>
       <c r="R13" s="9"/>
       <c r="S13" s="9"/>
       <c r="T13" s="9"/>
       <c r="U13" s="9"/>
-      <c r="V13" s="9"/>
+      <c r="V13" s="12"/>
       <c r="W13" s="12"/>
       <c r="X13" s="12"/>
       <c r="Y13" s="12"/>
       <c r="Z13" s="12"/>
       <c r="AA13" s="12"/>
-      <c r="AB13" s="12"/>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A14" s="14"/>
       <c r="B14" s="23"/>
       <c r="C14" s="27" t="s">
@@ -1349,27 +1341,26 @@
       <c r="G14" s="28"/>
       <c r="H14" s="28"/>
       <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
+      <c r="J14" s="29"/>
       <c r="K14" s="29"/>
       <c r="L14" s="29"/>
       <c r="M14" s="29"/>
       <c r="N14" s="29"/>
       <c r="O14" s="29"/>
-      <c r="P14" s="29"/>
+      <c r="P14" s="30"/>
       <c r="Q14" s="30"/>
       <c r="R14" s="30"/>
       <c r="S14" s="30"/>
       <c r="T14" s="30"/>
       <c r="U14" s="30"/>
-      <c r="V14" s="30"/>
+      <c r="V14" s="31"/>
       <c r="W14" s="31"/>
       <c r="X14" s="31"/>
       <c r="Y14" s="31"/>
       <c r="Z14" s="31"/>
       <c r="AA14" s="31"/>
-      <c r="AB14" s="31"/>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A15" s="14"/>
       <c r="B15" s="23"/>
       <c r="C15" s="37" t="s">
@@ -1380,11 +1371,11 @@
         <v>0</v>
       </c>
       <c r="E15" s="32">
-        <f>(E10+E11+E12+E13+E14)/5</f>
+        <f t="shared" ref="E15:AA15" si="1">(E10+E11+E12+E13+E14)/5</f>
         <v>0</v>
       </c>
       <c r="F15" s="32">
-        <f t="shared" ref="F15:AB15" si="1">(F10+F11+F12+F13+F14)/5</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G15" s="32">
@@ -1471,12 +1462,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AB15" s="32">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A16" s="14"/>
       <c r="B16" s="22" t="s">
         <v>3</v>
@@ -1490,27 +1477,26 @@
       <c r="G16" s="33"/>
       <c r="H16" s="33"/>
       <c r="I16" s="33"/>
-      <c r="J16" s="33"/>
+      <c r="J16" s="34"/>
       <c r="K16" s="34"/>
       <c r="L16" s="34"/>
       <c r="M16" s="34"/>
       <c r="N16" s="34"/>
       <c r="O16" s="34"/>
-      <c r="P16" s="34"/>
+      <c r="P16" s="35"/>
       <c r="Q16" s="35"/>
       <c r="R16" s="35"/>
       <c r="S16" s="35"/>
       <c r="T16" s="35"/>
       <c r="U16" s="35"/>
-      <c r="V16" s="35"/>
+      <c r="V16" s="36"/>
       <c r="W16" s="36"/>
       <c r="X16" s="36"/>
       <c r="Y16" s="36"/>
       <c r="Z16" s="36"/>
       <c r="AA16" s="36"/>
-      <c r="AB16" s="36"/>
-    </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A17" s="14"/>
       <c r="B17" s="23"/>
       <c r="C17" s="27" t="s">
@@ -1522,27 +1508,26 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
+      <c r="J17" s="3"/>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
+      <c r="P17" s="9"/>
       <c r="Q17" s="9"/>
       <c r="R17" s="9"/>
       <c r="S17" s="9"/>
       <c r="T17" s="9"/>
       <c r="U17" s="9"/>
-      <c r="V17" s="9"/>
+      <c r="V17" s="12"/>
       <c r="W17" s="12"/>
       <c r="X17" s="12"/>
       <c r="Y17" s="12"/>
       <c r="Z17" s="12"/>
       <c r="AA17" s="12"/>
-      <c r="AB17" s="12"/>
-    </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A18" s="14"/>
       <c r="B18" s="23"/>
       <c r="C18" s="27" t="s">
@@ -1554,27 +1539,26 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
+      <c r="J18" s="3"/>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
+      <c r="P18" s="9"/>
       <c r="Q18" s="9"/>
       <c r="R18" s="9"/>
       <c r="S18" s="9"/>
       <c r="T18" s="9"/>
       <c r="U18" s="9"/>
-      <c r="V18" s="9"/>
+      <c r="V18" s="12"/>
       <c r="W18" s="12"/>
       <c r="X18" s="12"/>
       <c r="Y18" s="12"/>
       <c r="Z18" s="12"/>
       <c r="AA18" s="12"/>
-      <c r="AB18" s="12"/>
-    </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A19" s="14"/>
       <c r="B19" s="23"/>
       <c r="C19" s="27" t="s">
@@ -1586,27 +1570,26 @@
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
+      <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
+      <c r="P19" s="9"/>
       <c r="Q19" s="9"/>
       <c r="R19" s="9"/>
       <c r="S19" s="9"/>
       <c r="T19" s="9"/>
       <c r="U19" s="9"/>
-      <c r="V19" s="9"/>
+      <c r="V19" s="12"/>
       <c r="W19" s="12"/>
       <c r="X19" s="12"/>
       <c r="Y19" s="12"/>
       <c r="Z19" s="12"/>
       <c r="AA19" s="12"/>
-      <c r="AB19" s="12"/>
-    </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A20" s="14"/>
       <c r="B20" s="23"/>
       <c r="C20" s="27" t="s">
@@ -1618,27 +1601,26 @@
       <c r="G20" s="28"/>
       <c r="H20" s="28"/>
       <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
+      <c r="J20" s="29"/>
       <c r="K20" s="29"/>
       <c r="L20" s="29"/>
       <c r="M20" s="29"/>
       <c r="N20" s="29"/>
       <c r="O20" s="29"/>
-      <c r="P20" s="29"/>
+      <c r="P20" s="30"/>
       <c r="Q20" s="30"/>
       <c r="R20" s="30"/>
       <c r="S20" s="30"/>
       <c r="T20" s="30"/>
       <c r="U20" s="30"/>
-      <c r="V20" s="30"/>
+      <c r="V20" s="31"/>
       <c r="W20" s="31"/>
       <c r="X20" s="31"/>
       <c r="Y20" s="31"/>
       <c r="Z20" s="31"/>
       <c r="AA20" s="31"/>
-      <c r="AB20" s="31"/>
-    </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A21" s="14"/>
       <c r="B21" s="24"/>
       <c r="C21" s="37" t="s">
@@ -1649,7 +1631,7 @@
         <v>0</v>
       </c>
       <c r="E21" s="32">
-        <f t="shared" ref="E21:AB21" si="2">(E16+E17+E18+E19+E20)/5</f>
+        <f t="shared" ref="E21:AA21" si="2">(E16+E17+E18+E19+E20)/5</f>
         <v>0</v>
       </c>
       <c r="F21" s="32">
@@ -1740,12 +1722,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AB21" s="32">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A22" s="14"/>
       <c r="B22" s="22" t="s">
         <v>4</v>
@@ -1759,27 +1737,26 @@
       <c r="G22" s="33"/>
       <c r="H22" s="33"/>
       <c r="I22" s="33"/>
-      <c r="J22" s="33"/>
+      <c r="J22" s="34"/>
       <c r="K22" s="34"/>
       <c r="L22" s="34"/>
       <c r="M22" s="34"/>
       <c r="N22" s="34"/>
       <c r="O22" s="34"/>
-      <c r="P22" s="34"/>
+      <c r="P22" s="35"/>
       <c r="Q22" s="35"/>
       <c r="R22" s="35"/>
       <c r="S22" s="35"/>
       <c r="T22" s="35"/>
       <c r="U22" s="35"/>
-      <c r="V22" s="35"/>
+      <c r="V22" s="36"/>
       <c r="W22" s="36"/>
       <c r="X22" s="36"/>
       <c r="Y22" s="36"/>
       <c r="Z22" s="36"/>
       <c r="AA22" s="36"/>
-      <c r="AB22" s="36"/>
-    </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A23" s="14"/>
       <c r="B23" s="23"/>
       <c r="C23" s="27" t="s">
@@ -1791,27 +1768,26 @@
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
+      <c r="J23" s="3"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
+      <c r="P23" s="9"/>
       <c r="Q23" s="9"/>
       <c r="R23" s="9"/>
       <c r="S23" s="9"/>
       <c r="T23" s="9"/>
       <c r="U23" s="9"/>
-      <c r="V23" s="9"/>
+      <c r="V23" s="12"/>
       <c r="W23" s="12"/>
       <c r="X23" s="12"/>
       <c r="Y23" s="12"/>
       <c r="Z23" s="12"/>
       <c r="AA23" s="12"/>
-      <c r="AB23" s="12"/>
-    </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A24" s="14"/>
       <c r="B24" s="23"/>
       <c r="C24" s="27" t="s">
@@ -1823,27 +1799,26 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
+      <c r="J24" s="3"/>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
+      <c r="P24" s="9"/>
       <c r="Q24" s="9"/>
       <c r="R24" s="9"/>
       <c r="S24" s="9"/>
       <c r="T24" s="9"/>
       <c r="U24" s="9"/>
-      <c r="V24" s="9"/>
+      <c r="V24" s="12"/>
       <c r="W24" s="12"/>
       <c r="X24" s="12"/>
       <c r="Y24" s="12"/>
       <c r="Z24" s="12"/>
       <c r="AA24" s="12"/>
-      <c r="AB24" s="12"/>
-    </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A25" s="14"/>
       <c r="B25" s="23"/>
       <c r="C25" s="27" t="s">
@@ -1855,27 +1830,26 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
+      <c r="J25" s="3"/>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
+      <c r="P25" s="9"/>
       <c r="Q25" s="9"/>
       <c r="R25" s="9"/>
       <c r="S25" s="9"/>
       <c r="T25" s="9"/>
       <c r="U25" s="9"/>
-      <c r="V25" s="9"/>
+      <c r="V25" s="12"/>
       <c r="W25" s="12"/>
       <c r="X25" s="12"/>
       <c r="Y25" s="12"/>
       <c r="Z25" s="12"/>
       <c r="AA25" s="12"/>
-      <c r="AB25" s="12"/>
-    </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A26" s="14"/>
       <c r="B26" s="23"/>
       <c r="C26" s="27" t="s">
@@ -1887,27 +1861,26 @@
       <c r="G26" s="28"/>
       <c r="H26" s="28"/>
       <c r="I26" s="28"/>
-      <c r="J26" s="28"/>
+      <c r="J26" s="29"/>
       <c r="K26" s="29"/>
       <c r="L26" s="29"/>
       <c r="M26" s="29"/>
       <c r="N26" s="29"/>
       <c r="O26" s="29"/>
-      <c r="P26" s="29"/>
+      <c r="P26" s="30"/>
       <c r="Q26" s="30"/>
       <c r="R26" s="30"/>
       <c r="S26" s="30"/>
       <c r="T26" s="30"/>
       <c r="U26" s="30"/>
-      <c r="V26" s="30"/>
+      <c r="V26" s="31"/>
       <c r="W26" s="31"/>
       <c r="X26" s="31"/>
       <c r="Y26" s="31"/>
       <c r="Z26" s="31"/>
       <c r="AA26" s="31"/>
-      <c r="AB26" s="31"/>
-    </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A27" s="14"/>
       <c r="B27" s="24"/>
       <c r="C27" s="37" t="s">
@@ -1918,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="E27" s="32">
-        <f t="shared" ref="E27:AB27" si="3">(E22+E23+E24+E25+E26)/5</f>
+        <f t="shared" ref="E27:AA27" si="3">(E22+E23+E24+E25+E26)/5</f>
         <v>0</v>
       </c>
       <c r="F27" s="32">
@@ -2006,24 +1979,20 @@
         <v>0</v>
       </c>
       <c r="AA27" s="32">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AB27" s="32">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="Q2:V2"/>
-    <mergeCell ref="W2:AB2"/>
-    <mergeCell ref="D2:J2"/>
-    <mergeCell ref="D1:AB1"/>
+    <mergeCell ref="P2:U2"/>
+    <mergeCell ref="V2:AA2"/>
+    <mergeCell ref="D2:I2"/>
+    <mergeCell ref="D1:AA1"/>
     <mergeCell ref="B4:B9"/>
     <mergeCell ref="C1:C3"/>
     <mergeCell ref="A4:A27"/>
-    <mergeCell ref="K2:P2"/>
+    <mergeCell ref="J2:O2"/>
     <mergeCell ref="B10:B15"/>
     <mergeCell ref="B16:B21"/>
     <mergeCell ref="B22:B27"/>

--- a/Documentación/Resultados.xlsx
+++ b/Documentación/Resultados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hugohernandez/Desktop/ADA/Documentación/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53620567-0D97-C04C-A6AA-377A84EE021D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ADFEED73-0B85-9A4B-8934-A75FC45338DD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14240" xr2:uid="{38290FD7-5BEA-634D-AAC4-60AAC5104D90}"/>
   </bookViews>

--- a/Documentación/Resultados.xlsx
+++ b/Documentación/Resultados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hugohernandez/Desktop/ADA/Documentación/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ADFEED73-0B85-9A4B-8934-A75FC45338DD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A4F2225-2036-F74E-9E7D-D8C8618B1F61}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14240" xr2:uid="{38290FD7-5BEA-634D-AAC4-60AAC5104D90}"/>
   </bookViews>
@@ -774,7 +774,7 @@
   <dimension ref="A1:AA27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -941,9 +941,7 @@
       <c r="C4" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="1">
-        <v>2.3782686000000001E-2</v>
-      </c>
+      <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -974,9 +972,7 @@
       <c r="C5" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="1">
-        <v>2.5426068E-2</v>
-      </c>
+      <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -1007,9 +1003,7 @@
       <c r="C6" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="1">
-        <v>2.2213452000000002E-2</v>
-      </c>
+      <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -1040,9 +1034,7 @@
       <c r="C7" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="1">
-        <v>2.4935939000000001E-2</v>
-      </c>
+      <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -1073,9 +1065,7 @@
       <c r="C8" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="28">
-        <v>2.7977952E-2</v>
-      </c>
+      <c r="D8" s="28"/>
       <c r="E8" s="28"/>
       <c r="F8" s="28"/>
       <c r="G8" s="28"/>
@@ -1108,7 +1098,7 @@
       </c>
       <c r="D9" s="32">
         <f>(D4+D5+D6+D7+D8)/5</f>
-        <v>2.4867219400000001E-2</v>
+        <v>0</v>
       </c>
       <c r="E9" s="32">
         <f t="shared" ref="E9:AA9" si="0">(E4+E5+E6+E7+E8)/5</f>
@@ -1211,7 +1201,9 @@
       <c r="C10" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="33"/>
+      <c r="D10" s="1">
+        <v>2.3782686000000001E-2</v>
+      </c>
       <c r="E10" s="33"/>
       <c r="F10" s="33"/>
       <c r="G10" s="33"/>
@@ -1242,7 +1234,9 @@
       <c r="C11" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="1"/>
+      <c r="D11" s="1">
+        <v>2.5426068E-2</v>
+      </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -1273,7 +1267,9 @@
       <c r="C12" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="1"/>
+      <c r="D12" s="1">
+        <v>2.2213452000000002E-2</v>
+      </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -1304,7 +1300,9 @@
       <c r="C13" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="1"/>
+      <c r="D13" s="1">
+        <v>2.4935939000000001E-2</v>
+      </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -1335,7 +1333,9 @@
       <c r="C14" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="28"/>
+      <c r="D14" s="28">
+        <v>2.7977952E-2</v>
+      </c>
       <c r="E14" s="28"/>
       <c r="F14" s="28"/>
       <c r="G14" s="28"/>
@@ -1368,7 +1368,7 @@
       </c>
       <c r="D15" s="32">
         <f>(D10+D11+D12+D13+D14)/5</f>
-        <v>0</v>
+        <v>2.4867219400000001E-2</v>
       </c>
       <c r="E15" s="32">
         <f t="shared" ref="E15:AA15" si="1">(E10+E11+E12+E13+E14)/5</f>

--- a/Documentación/Resultados.xlsx
+++ b/Documentación/Resultados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hugohernandez/Desktop/ADA/Documentación/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A4F2225-2036-F74E-9E7D-D8C8618B1F61}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CD8D323-63A1-524B-A365-DF5488D9422C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14240" xr2:uid="{38290FD7-5BEA-634D-AAC4-60AAC5104D90}"/>
   </bookViews>

--- a/Documentación/Resultados.xlsx
+++ b/Documentación/Resultados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hugohernandez/Desktop/ADA/Documentación/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CD8D323-63A1-524B-A365-DF5488D9422C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F423B9B4-7432-D744-818A-9980EF1355A5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14240" xr2:uid="{38290FD7-5BEA-634D-AAC4-60AAC5104D90}"/>
   </bookViews>
